--- a/portfolio_rankings.xlsx
+++ b/portfolio_rankings.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,24 +434,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="19" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="23" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="61" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="17" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
-    <col width="12" customWidth="1" min="14" max="14"/>
-    <col width="15" customWidth="1" min="15" max="15"/>
-    <col width="29" customWidth="1" min="16" max="16"/>
-    <col width="22" customWidth="1" min="17" max="17"/>
-    <col width="904" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="45" customWidth="1" min="10" max="10"/>
+    <col width="17" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="22" customWidth="1" min="13" max="13"/>
+    <col width="13" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="18" customWidth="1" min="16" max="16"/>
+    <col width="24" customWidth="1" min="17" max="17"/>
+    <col width="7480" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -462,82 +462,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Final Rating (0-100)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Promoter Holding</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Inst. Holding</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>D/E Ratio</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RoE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Profit Growth YoY</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Profit CAGR 5Y</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Dividend Yield</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Economic Moat</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Valuation Score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>SymbolTrendRS</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>NIFTY200DMARSIVolume</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Promoter Holding (%)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Inst. Holding (%)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>D/E Ratio</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>RoE (%)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Profit Growth YoY (%)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Dividend Yield (%)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Economic Moat</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Profit CAGR 5Y (%)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Valuation Score</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>200-Day DMA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>14-Day RSI</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>20-Day Vol MA</t>
-        </is>
-      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Simple RS vs NIFTY_50 (63d)</t>
+          <t>20-Day Volume MA</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Final Rating (0-100)</t>
+          <t>Simple RS vs Benchmark</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -549,184 +549,304 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RELIANCE.NS</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>27.19</t>
-        </is>
+          <t>NXPI</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>22.45</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>50.0% -&gt; 100</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.60</t>
+          <t>10.0% -&gt; 40.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>116.945 -&gt; 0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>27.49% -&gt; 100</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>15.0% -&gt; 75.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>38.50</t>
+          <t>10.0% -&gt; 50.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>1.00% -&gt; 50.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>None (Narrow moat due to: Large market cap (17247.04B INR))</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>11.50</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>1347.62</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>58.74</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>14047347.15</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>48.87</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>43.49</t>
-        </is>
+          <t>No moat: Insufficient competitive advantage</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>65</v>
+      </c>
+      <c r="L2" t="n">
+        <v>35.45860667649082</v>
+      </c>
+      <c r="M2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>50</v>
+      </c>
+      <c r="P2" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>30.38357016651501</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>D/E Ratio: 0.37 (Fetched from yahooquery); Dividend Yield: 0.39% (Fetched from yahooquery); Economic Moat: Narrow (Narrow moat due to: Large market cap (17247.04B INR); Profit Margin=7.36%, Market Cap=17247.04B INR, ROIC=0.00%, Revenue Stability=10.00%); 200-Day DMA: 1347.62 (Simple Moving Average of closing prices over 200 days); 14-Day RSI: 58.74 (Relative Strength Index over 14 days); 20-Day Vol MA: 14047347.15 (Average trading volume over 20 days); Simple RS vs NIFTY_50 (63d): 48.87 (Stock's 63-day return vs NIFTY 50, scaled 0-100); SymbolTrendRS: 27.19 (Average of RSI-based score (29.37) and MACD signal score (25.00)); NIFTY200DMARSIVolume: 60.00 (Composite score: DMA=0, RSI=25, Volume=25, RS=10); Volatility: 22.76% (Annualized standard deviation of daily returns); Final Rating: 43.49 (Weighted average of 15 scores with volatility penalty 77.24%)</t>
+          <t>Fetched fundamental data for NXPI; Calculated technical metrics for NXPI; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TCS.NS</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>20.56</t>
-        </is>
+          <t>AXISCADES.NS</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>23.69</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>50.6% -&gt; 100</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>8.7% -&gt; 34.8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>41.604 -&gt; 0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>15.00% -&gt; 75.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>52.16</t>
+          <t>38.5% -&gt; 100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>11.5% -&gt; 57.5</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.00% -&gt; 50.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>None (Narrow moat due to: Large market cap (11935.72B INR))</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>4037.48</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>32.23</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>3334551.20</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>25.95</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>47.33</t>
-        </is>
+          <t>No moat: Insufficient competitive advantage</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>65</v>
+      </c>
+      <c r="L3" t="n">
+        <v>25.32905436695859</v>
+      </c>
+      <c r="M3" t="n">
+        <v>85</v>
+      </c>
+      <c r="N3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O3" t="n">
+        <v>50</v>
+      </c>
+      <c r="P3" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>100</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>D/E Ratio: 0.10 (Fetched from yahooquery); RoE: 52.16% (Fetched from yahooquery); Dividend Yield: 1.76% (Fetched from yahooquery); Economic Moat: Narrow (Narrow moat due to: Large market cap (11935.72B INR); Profit Margin=19.02%, Market Cap=11935.72B INR, ROIC=0.00%, Revenue Stability=10.00%); 200-Day DMA: 4037.48 (Simple Moving Average of closing prices over 200 days); 14-Day RSI: 32.23 (Relative Strength Index over 14 days); 20-Day Vol MA: 3334551.20 (Average trading volume over 20 days); Simple RS vs NIFTY_50 (63d): 25.95 (Stock's 63-day return vs NIFTY 50, scaled 0-100); SymbolTrendRS: 20.56 (Average of RSI-based score (16.12) and MACD signal score (25.00)); NIFTY200DMARSIVolume: 45.00 (Composite score: DMA=0, RSI=25, Volume=10, RS=10); Volatility: 21.42% (Annualized standard deviation of daily returns); Final Rating: 47.33 (Weighted average of 15 scores with volatility penalty 78.58%)</t>
+          <t>Fetched fundamental data for AXISCADES.NS; Calculated technical metrics for AXISCADES.NS; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 23.69; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 23.69; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 23.69; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 23.69; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 23.69; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 23.69; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 23.69; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 23.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>27.07</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>60.0% -&gt; 100</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.0% -&gt; 40.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5.514 -&gt; 0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>15.00% -&gt; 75.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>20.0% -&gt; 100</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>25.0% -&gt; 100</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1.00% -&gt; 50.0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>No moat: Insufficient competitive advantage</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>65</v>
+      </c>
+      <c r="L4" t="n">
+        <v>24.67793286296352</v>
+      </c>
+      <c r="M4" t="n">
+        <v>85</v>
+      </c>
+      <c r="N4" t="n">
+        <v>100</v>
+      </c>
+      <c r="O4" t="n">
+        <v>50</v>
+      </c>
+      <c r="P4" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>100</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Fetched fundamental data for CARTRADE.NS; Calculated technical metrics for CARTRADE.NS; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 27.07; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 27.07; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 27.07; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 27.07; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 27.07; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 27.07; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 27.07; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 27.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>34.24</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>50.0% -&gt; 100</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.0% -&gt; 60.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>738.948 -&gt; 0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>15.00% -&gt; 75.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.0% -&gt; 50.0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>12.0% -&gt; 60.0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1.00% -&gt; 50.0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>No moat: Insufficient competitive advantage</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>65</v>
+      </c>
+      <c r="L5" t="n">
+        <v>40.66905690810555</v>
+      </c>
+      <c r="M5" t="n">
+        <v>85</v>
+      </c>
+      <c r="N5" t="n">
+        <v>100</v>
+      </c>
+      <c r="O5" t="n">
+        <v>50</v>
+      </c>
+      <c r="P5" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>58.91538232317549</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Fetched fundamental data for CHOLAFIN.NS; Calculated technical metrics for CHOLAFIN.NS; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 15.0% -&gt; Score: 60.0; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 34.24; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 15.0% -&gt; Score: 60.0; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 34.24; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 15.0% -&gt; Score: 60.0; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 34.24; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 15.0% -&gt; Score: 60.0; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 34.24; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 15.0% -&gt; Score: 60.0; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 34.24; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 15.0% -&gt; Score: 60.0; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 34.24; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 15.0% -&gt; Score: 60.0; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 34.24; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 15.0% -&gt; Score: 60.0; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 34.24</t>
         </is>
       </c>
     </row>
@@ -741,7 +861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,7 +869,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="176" customWidth="1" min="1" max="1"/>
+    <col width="86" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -762,161 +882,4760 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RELIANCE.NS: D/E Ratio: 0.37 (Fetched from yahooquery)</t>
+          <t>NXPI: Fetched fundamental data for NXPI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RELIANCE.NS: Dividend Yield: 0.39% (Fetched from yahooquery)</t>
+          <t>NXPI: Calculated technical metrics for NXPI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RELIANCE.NS: Economic Moat: Narrow (Narrow moat due to: Large market cap (17247.04B INR); Profit Margin=7.36%, Market Cap=17247.04B INR, ROIC=0.00%, Revenue Stability=10.00%)</t>
+          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RELIANCE.NS: 200-Day DMA: 1347.62 (Simple Moving Average of closing prices over 200 days)</t>
+          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RELIANCE.NS: 14-Day RSI: 58.74 (Relative Strength Index over 14 days)</t>
+          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RELIANCE.NS: 20-Day Vol MA: 14047347.15 (Average trading volume over 20 days)</t>
+          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RELIANCE.NS: Simple RS vs NIFTY_50 (63d): 48.87 (Stock's 63-day return vs NIFTY 50, scaled 0-100)</t>
+          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RELIANCE.NS: SymbolTrendRS: 27.19 (Average of RSI-based score (29.37) and MACD signal score (25.00))</t>
+          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RELIANCE.NS: NIFTY200DMARSIVolume: 60.00 (Composite score: DMA=0, RSI=25, Volume=25, RS=10)</t>
+          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RELIANCE.NS: Volatility: 22.76% (Annualized standard deviation of daily returns)</t>
+          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RELIANCE.NS: Final Rating: 43.49 (Weighted average of 15 scores with volatility penalty 77.24%)</t>
+          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TCS.NS: D/E Ratio: 0.10 (Fetched from yahooquery)</t>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TCS.NS: RoE: 52.16% (Fetched from yahooquery)</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TCS.NS: Dividend Yield: 1.76% (Fetched from yahooquery)</t>
+          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TCS.NS: Economic Moat: Narrow (Narrow moat due to: Large market cap (11935.72B INR); Profit Margin=19.02%, Market Cap=11935.72B INR, ROIC=0.00%, Revenue Stability=10.00%)</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TCS.NS: 200-Day DMA: 4037.48 (Simple Moving Average of closing prices over 200 days)</t>
+          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TCS.NS: 14-Day RSI: 32.23 (Relative Strength Index over 14 days)</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TCS.NS: 20-Day Vol MA: 3334551.20 (Average trading volume over 20 days)</t>
+          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TCS.NS: Simple RS vs NIFTY_50 (63d): 25.95 (Stock's 63-day return vs NIFTY 50, scaled 0-100)</t>
+          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TCS.NS: SymbolTrendRS: 20.56 (Average of RSI-based score (16.12) and MACD signal score (25.00))</t>
+          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TCS.NS: NIFTY200DMARSIVolume: 45.00 (Composite score: DMA=0, RSI=25, Volume=10, RS=10)</t>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TCS.NS: Volatility: 21.42% (Annualized standard deviation of daily returns)</t>
+          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.50</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TCS.NS: Final Rating: 47.33 (Weighted average of 15 scores with volatility penalty 78.58%)</t>
+          <t>NXPI: Final Rating: 22.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>NXPI: Final Rating: 22.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>NXPI: Final Rating: 22.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>NXPI: Final Rating: 22.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>NXPI: Final Rating: 22.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>NXPI: Final Rating: 22.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>NXPI: Final Rating: 22.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>NXPI: Final Rating: 22.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Fetched fundamental data for AXISCADES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Calculated technical metrics for AXISCADES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Final Rating: 23.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Final Rating: 23.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Final Rating: 23.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Final Rating: 23.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Final Rating: 23.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Final Rating: 23.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Final Rating: 23.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>AXISCADES.NS: Final Rating: 23.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Fetched fundamental data for CARTRADE.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Calculated technical metrics for CARTRADE.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Final Rating: 27.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Final Rating: 27.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Final Rating: 27.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Final Rating: 27.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Final Rating: 27.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Final Rating: 27.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Final Rating: 27.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>CARTRADE.NS: Final Rating: 27.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Fetched fundamental data for CHOLAFIN.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Calculated technical metrics for CHOLAFIN.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Promoter Holding: 50.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Institutional Holding: 15.0% -&gt; Score: 60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Final Rating: 34.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Promoter Holding: 50.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Institutional Holding: 15.0% -&gt; Score: 60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Final Rating: 34.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Promoter Holding: 50.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Institutional Holding: 15.0% -&gt; Score: 60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Final Rating: 34.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Promoter Holding: 50.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Institutional Holding: 15.0% -&gt; Score: 60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Final Rating: 34.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Promoter Holding: 50.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Institutional Holding: 15.0% -&gt; Score: 60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Final Rating: 34.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Promoter Holding: 50.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Institutional Holding: 15.0% -&gt; Score: 60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Final Rating: 34.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Promoter Holding: 50.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Institutional Holding: 15.0% -&gt; Score: 60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Final Rating: 34.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Promoter Holding: 50.0% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Institutional Holding: 15.0% -&gt; Score: 60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Final Rating: 34.24</t>
         </is>
       </c>
     </row>

--- a/portfolio_rankings.xlsx
+++ b/portfolio_rankings.xlsx
@@ -599,7 +599,7 @@
         <v>65</v>
       </c>
       <c r="L2" t="n">
-        <v>35.45860667649082</v>
+        <v>35.45860667648925</v>
       </c>
       <c r="M2" t="n">
         <v>45</v>
@@ -614,11 +614,11 @@
         <v>25</v>
       </c>
       <c r="Q2" t="n">
-        <v>30.38357016651501</v>
+        <v>30.38357733960528</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Fetched fundamental data for NXPI; Calculated technical metrics for NXPI; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45</t>
+          <t>Fetched fundamental data for NXPI; Calculated technical metrics for NXPI; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45</t>
         </is>
       </c>
     </row>
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.69</v>
+        <v>24.3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>50.6% -&gt; 100</t>
+          <t>59.4% -&gt; 100</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.7% -&gt; 34.8</t>
+          <t>3.0% -&gt; 12.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -653,12 +653,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>38.5% -&gt; 100</t>
+          <t>34.0% -&gt; 100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11.5% -&gt; 57.5</t>
+          <t>85.0% -&gt; 100</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Fetched fundamental data for AXISCADES.NS; Calculated technical metrics for AXISCADES.NS; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 23.69; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 23.69; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 23.69; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 23.69; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 23.69; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 23.69; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 23.69; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 23.69</t>
+          <t>Fetched fundamental data for AXISCADES.NS; Calculated technical metrics for AXISCADES.NS; Promoter Holding: 59.4% -&gt; Score: 100; Institutional Holding: 3.0% -&gt; Score: 12.0; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 34.0% -&gt; Score: 100; Profit CAGR 5Y: 85.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 24.3; Promoter Holding: 59.4% -&gt; Score: 100; Institutional Holding: 3.0% -&gt; Score: 12.0; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 34.0% -&gt; Score: 100; Profit CAGR 5Y: 85.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 24.3; Promoter Holding: 59.4% -&gt; Score: 100; Institutional Holding: 3.0% -&gt; Score: 12.0; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 34.0% -&gt; Score: 100; Profit CAGR 5Y: 85.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 24.3; Promoter Holding: 59.4% -&gt; Score: 100; Institutional Holding: 3.0% -&gt; Score: 12.0; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 34.0% -&gt; Score: 100; Profit CAGR 5Y: 85.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 24.3; Promoter Holding: 59.4% -&gt; Score: 100; Institutional Holding: 3.0% -&gt; Score: 12.0; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 34.0% -&gt; Score: 100; Profit CAGR 5Y: 85.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 24.3; Promoter Holding: 59.4% -&gt; Score: 100; Institutional Holding: 3.0% -&gt; Score: 12.0; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 34.0% -&gt; Score: 100; Profit CAGR 5Y: 85.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 24.3; Promoter Holding: 59.4% -&gt; Score: 100; Institutional Holding: 3.0% -&gt; Score: 12.0; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 34.0% -&gt; Score: 100; Profit CAGR 5Y: 85.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 24.3; Promoter Holding: 59.4% -&gt; Score: 100; Institutional Holding: 3.0% -&gt; Score: 12.0; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 34.0% -&gt; Score: 100; Profit CAGR 5Y: 85.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 24.3</t>
         </is>
       </c>
     </row>
@@ -705,16 +705,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.07</v>
+        <v>29.09</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>60.0% -&gt; 100</t>
+          <t>61.0% -&gt; 100</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.0% -&gt; 40.0</t>
+          <t>39.0% -&gt; 100</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20.0% -&gt; 100</t>
+          <t>78.0% -&gt; 100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>25.0% -&gt; 100</t>
+          <t>35.0% -&gt; 100</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Fetched fundamental data for CARTRADE.NS; Calculated technical metrics for CARTRADE.NS; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 27.07; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 27.07; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 27.07; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 27.07; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 27.07; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 27.07; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 27.07; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 27.07</t>
+          <t>Fetched fundamental data for CARTRADE.NS; Calculated technical metrics for CARTRADE.NS; Promoter Holding: 61.0% -&gt; Score: 100; Institutional Holding: 39.0% -&gt; Score: 100; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 78.0% -&gt; Score: 100; Profit CAGR 5Y: 35.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 29.09; Promoter Holding: 61.0% -&gt; Score: 100; Institutional Holding: 39.0% -&gt; Score: 100; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 78.0% -&gt; Score: 100; Profit CAGR 5Y: 35.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 29.09; Promoter Holding: 61.0% -&gt; Score: 100; Institutional Holding: 39.0% -&gt; Score: 100; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 78.0% -&gt; Score: 100; Profit CAGR 5Y: 35.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 29.09; Promoter Holding: 61.0% -&gt; Score: 100; Institutional Holding: 39.0% -&gt; Score: 100; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 78.0% -&gt; Score: 100; Profit CAGR 5Y: 35.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 29.09; Promoter Holding: 61.0% -&gt; Score: 100; Institutional Holding: 39.0% -&gt; Score: 100; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 78.0% -&gt; Score: 100; Profit CAGR 5Y: 35.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 29.09; Promoter Holding: 61.0% -&gt; Score: 100; Institutional Holding: 39.0% -&gt; Score: 100; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 78.0% -&gt; Score: 100; Profit CAGR 5Y: 35.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 29.09; Promoter Holding: 61.0% -&gt; Score: 100; Institutional Holding: 39.0% -&gt; Score: 100; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 78.0% -&gt; Score: 100; Profit CAGR 5Y: 35.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 29.09; Promoter Holding: 61.0% -&gt; Score: 100; Institutional Holding: 39.0% -&gt; Score: 100; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 78.0% -&gt; Score: 100; Profit CAGR 5Y: 35.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 29.09</t>
         </is>
       </c>
     </row>
@@ -781,16 +781,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.24</v>
+        <v>40.53</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>50.0% -&gt; 100</t>
+          <t>49.93% -&gt; 99.86</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.0% -&gt; 60.0</t>
+          <t>42.0% -&gt; 100</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -805,12 +805,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10.0% -&gt; 50.0</t>
+          <t>27.0% -&gt; 100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>12.0% -&gt; 60.0</t>
+          <t>23.0% -&gt; 100</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Fetched fundamental data for CHOLAFIN.NS; Calculated technical metrics for CHOLAFIN.NS; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 15.0% -&gt; Score: 60.0; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 34.24; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 15.0% -&gt; Score: 60.0; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 34.24; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 15.0% -&gt; Score: 60.0; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 34.24; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 15.0% -&gt; Score: 60.0; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 34.24; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 15.0% -&gt; Score: 60.0; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 34.24; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 15.0% -&gt; Score: 60.0; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 34.24; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 15.0% -&gt; Score: 60.0; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 34.24; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 15.0% -&gt; Score: 60.0; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 34.24</t>
+          <t>Fetched fundamental data for CHOLAFIN.NS; Calculated technical metrics for CHOLAFIN.NS; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 42.0% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 27.0% -&gt; Score: 100; Profit CAGR 5Y: 23.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 40.53; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 42.0% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 27.0% -&gt; Score: 100; Profit CAGR 5Y: 23.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 40.53; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 42.0% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 27.0% -&gt; Score: 100; Profit CAGR 5Y: 23.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 40.53; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 42.0% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 27.0% -&gt; Score: 100; Profit CAGR 5Y: 23.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 40.53; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 42.0% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 27.0% -&gt; Score: 100; Profit CAGR 5Y: 23.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 40.53; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 42.0% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 27.0% -&gt; Score: 100; Profit CAGR 5Y: 23.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 40.53; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 42.0% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 27.0% -&gt; Score: 100; Profit CAGR 5Y: 23.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 40.53; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 42.0% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 27.0% -&gt; Score: 100; Profit CAGR 5Y: 23.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 40.53</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082</t>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007</t>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082</t>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007</t>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082</t>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007</t>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082</t>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007</t>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082</t>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007</t>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082</t>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007</t>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082</t>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007</t>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667649082</t>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.383570166515007</t>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
         </is>
       </c>
     </row>
@@ -2086,14 +2086,14 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Promoter Holding: 59.4% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
+          <t>AXISCADES.NS: Institutional Holding: 3.0% -&gt; Score: 12.0</t>
         </is>
       </c>
     </row>
@@ -2114,14 +2114,14 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Profit Growth YoY: 34.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 85.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -2226,21 +2226,21 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Final Rating: 23.69</t>
+          <t>AXISCADES.NS: Final Rating: 24.3</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Promoter Holding: 59.4% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
+          <t>AXISCADES.NS: Institutional Holding: 3.0% -&gt; Score: 12.0</t>
         </is>
       </c>
     </row>
@@ -2261,14 +2261,14 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Profit Growth YoY: 34.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 85.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -2373,21 +2373,21 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Final Rating: 23.69</t>
+          <t>AXISCADES.NS: Final Rating: 24.3</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Promoter Holding: 59.4% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
+          <t>AXISCADES.NS: Institutional Holding: 3.0% -&gt; Score: 12.0</t>
         </is>
       </c>
     </row>
@@ -2408,14 +2408,14 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Profit Growth YoY: 34.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 85.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -2520,21 +2520,21 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Final Rating: 23.69</t>
+          <t>AXISCADES.NS: Final Rating: 24.3</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Promoter Holding: 59.4% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
+          <t>AXISCADES.NS: Institutional Holding: 3.0% -&gt; Score: 12.0</t>
         </is>
       </c>
     </row>
@@ -2555,14 +2555,14 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Profit Growth YoY: 34.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 85.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -2667,21 +2667,21 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Final Rating: 23.69</t>
+          <t>AXISCADES.NS: Final Rating: 24.3</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Promoter Holding: 59.4% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
+          <t>AXISCADES.NS: Institutional Holding: 3.0% -&gt; Score: 12.0</t>
         </is>
       </c>
     </row>
@@ -2702,14 +2702,14 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Profit Growth YoY: 34.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 85.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -2814,21 +2814,21 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Final Rating: 23.69</t>
+          <t>AXISCADES.NS: Final Rating: 24.3</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Promoter Holding: 59.4% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
+          <t>AXISCADES.NS: Institutional Holding: 3.0% -&gt; Score: 12.0</t>
         </is>
       </c>
     </row>
@@ -2849,14 +2849,14 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Profit Growth YoY: 34.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 85.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -2961,21 +2961,21 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Final Rating: 23.69</t>
+          <t>AXISCADES.NS: Final Rating: 24.3</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Promoter Holding: 59.4% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
+          <t>AXISCADES.NS: Institutional Holding: 3.0% -&gt; Score: 12.0</t>
         </is>
       </c>
     </row>
@@ -2996,14 +2996,14 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Profit Growth YoY: 34.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 85.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -3108,21 +3108,21 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Final Rating: 23.69</t>
+          <t>AXISCADES.NS: Final Rating: 24.3</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Promoter Holding: 59.4% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
+          <t>AXISCADES.NS: Institutional Holding: 3.0% -&gt; Score: 12.0</t>
         </is>
       </c>
     </row>
@@ -3143,14 +3143,14 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Profit Growth YoY: 34.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 85.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -3255,7 +3255,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Final Rating: 23.69</t>
+          <t>AXISCADES.NS: Final Rating: 24.3</t>
         </is>
       </c>
     </row>
@@ -3276,14 +3276,14 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Promoter Holding: 61.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+          <t>CARTRADE.NS: Institutional Holding: 39.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -3304,14 +3304,14 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit Growth YoY: 78.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 35.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -3416,21 +3416,21 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Final Rating: 27.07</t>
+          <t>CARTRADE.NS: Final Rating: 29.09</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Promoter Holding: 61.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+          <t>CARTRADE.NS: Institutional Holding: 39.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -3451,14 +3451,14 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit Growth YoY: 78.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 35.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -3563,21 +3563,21 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Final Rating: 27.07</t>
+          <t>CARTRADE.NS: Final Rating: 29.09</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Promoter Holding: 61.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+          <t>CARTRADE.NS: Institutional Holding: 39.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -3598,14 +3598,14 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit Growth YoY: 78.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 35.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -3710,21 +3710,21 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Final Rating: 27.07</t>
+          <t>CARTRADE.NS: Final Rating: 29.09</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Promoter Holding: 61.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+          <t>CARTRADE.NS: Institutional Holding: 39.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -3745,14 +3745,14 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit Growth YoY: 78.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 35.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -3857,21 +3857,21 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Final Rating: 27.07</t>
+          <t>CARTRADE.NS: Final Rating: 29.09</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Promoter Holding: 61.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+          <t>CARTRADE.NS: Institutional Holding: 39.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -3892,14 +3892,14 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit Growth YoY: 78.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 35.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -4004,21 +4004,21 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Final Rating: 27.07</t>
+          <t>CARTRADE.NS: Final Rating: 29.09</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Promoter Holding: 61.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+          <t>CARTRADE.NS: Institutional Holding: 39.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -4039,14 +4039,14 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit Growth YoY: 78.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 35.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -4151,21 +4151,21 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Final Rating: 27.07</t>
+          <t>CARTRADE.NS: Final Rating: 29.09</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Promoter Holding: 61.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+          <t>CARTRADE.NS: Institutional Holding: 39.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -4186,14 +4186,14 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit Growth YoY: 78.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 35.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -4298,21 +4298,21 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Final Rating: 27.07</t>
+          <t>CARTRADE.NS: Final Rating: 29.09</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Promoter Holding: 61.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+          <t>CARTRADE.NS: Institutional Holding: 39.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -4333,14 +4333,14 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit Growth YoY: 78.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 35.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -4445,7 +4445,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Final Rating: 27.07</t>
+          <t>CARTRADE.NS: Final Rating: 29.09</t>
         </is>
       </c>
     </row>
@@ -4466,14 +4466,14 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Promoter Holding: 50.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Institutional Holding: 15.0% -&gt; Score: 60.0</t>
+          <t>CHOLAFIN.NS: Institutional Holding: 42.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -4494,14 +4494,14 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 27.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 23.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -4606,21 +4606,21 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Final Rating: 34.24</t>
+          <t>CHOLAFIN.NS: Final Rating: 40.53</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Promoter Holding: 50.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Institutional Holding: 15.0% -&gt; Score: 60.0</t>
+          <t>CHOLAFIN.NS: Institutional Holding: 42.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -4641,14 +4641,14 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 27.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 23.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -4753,21 +4753,21 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Final Rating: 34.24</t>
+          <t>CHOLAFIN.NS: Final Rating: 40.53</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Promoter Holding: 50.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Institutional Holding: 15.0% -&gt; Score: 60.0</t>
+          <t>CHOLAFIN.NS: Institutional Holding: 42.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -4788,14 +4788,14 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 27.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 23.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -4900,21 +4900,21 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Final Rating: 34.24</t>
+          <t>CHOLAFIN.NS: Final Rating: 40.53</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Promoter Holding: 50.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Institutional Holding: 15.0% -&gt; Score: 60.0</t>
+          <t>CHOLAFIN.NS: Institutional Holding: 42.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -4935,14 +4935,14 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 27.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 23.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -5047,21 +5047,21 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Final Rating: 34.24</t>
+          <t>CHOLAFIN.NS: Final Rating: 40.53</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Promoter Holding: 50.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Institutional Holding: 15.0% -&gt; Score: 60.0</t>
+          <t>CHOLAFIN.NS: Institutional Holding: 42.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -5082,14 +5082,14 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 27.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 23.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -5194,21 +5194,21 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Final Rating: 34.24</t>
+          <t>CHOLAFIN.NS: Final Rating: 40.53</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Promoter Holding: 50.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Institutional Holding: 15.0% -&gt; Score: 60.0</t>
+          <t>CHOLAFIN.NS: Institutional Holding: 42.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -5229,14 +5229,14 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 27.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 23.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -5341,21 +5341,21 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Final Rating: 34.24</t>
+          <t>CHOLAFIN.NS: Final Rating: 40.53</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Promoter Holding: 50.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Institutional Holding: 15.0% -&gt; Score: 60.0</t>
+          <t>CHOLAFIN.NS: Institutional Holding: 42.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -5376,14 +5376,14 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 27.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 23.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -5488,21 +5488,21 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Final Rating: 34.24</t>
+          <t>CHOLAFIN.NS: Final Rating: 40.53</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Promoter Holding: 50.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Institutional Holding: 15.0% -&gt; Score: 60.0</t>
+          <t>CHOLAFIN.NS: Institutional Holding: 42.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -5523,14 +5523,14 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 27.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 23.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -5635,7 +5635,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Final Rating: 34.24</t>
+          <t>CHOLAFIN.NS: Final Rating: 40.53</t>
         </is>
       </c>
     </row>

--- a/portfolio_rankings.xlsx
+++ b/portfolio_rankings.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,23 @@
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="19" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="82" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="45" customWidth="1" min="10" max="10"/>
-    <col width="17" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="22" customWidth="1" min="13" max="13"/>
-    <col width="13" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
-    <col width="18" customWidth="1" min="16" max="16"/>
-    <col width="24" customWidth="1" min="17" max="17"/>
-    <col width="7480" customWidth="1" min="18" max="18"/>
+    <col width="17" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="45" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="22" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="18" customWidth="1" min="17" max="17"/>
+    <col width="24" customWidth="1" min="18" max="18"/>
+    <col width="8398" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -467,80 +468,85 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Recommendation</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recommendation Reasons</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Promoter Holding</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Inst. Holding</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>D/E Ratio</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>RoE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Profit Growth YoY</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Valuation Score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Profit CAGR 5Y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Dividend Yield</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Economic Moat</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Valuation Score</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>SymbolTrendRS</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>NIFTY200DMARSIVolume</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>200-Day DMA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>14-Day RSI</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>20-Day Volume MA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Simple RS vs Benchmark</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Calculation Details</t>
         </is>
@@ -553,72 +559,77 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.45</v>
+        <v>36.2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Low rating (&lt; 60); RSI in neutral range; Positive MACD (Bullish)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>50.0% -&gt; 100</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>10.0% -&gt; 40.0</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>116.945 -&gt; 0</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>27.49% -&gt; 100</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>15.0% -&gt; 75.0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="n">
+        <v>65</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>10.0% -&gt; 50.0</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>1.00% -&gt; 50.0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>No moat: Insufficient competitive advantage</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>65</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>35.45860667648925</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>45</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>50</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>25</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>30.38357733960528</v>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Fetched fundamental data for NXPI; Calculated technical metrics for NXPI; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.50; Final Rating: 22.45</t>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Fetched fundamental data for NXPI; Calculated technical metrics for NXPI; Calculated technical metrics for NXPI; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.60; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.60; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.60; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.60; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.60; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.60; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.60; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.60; Promoter Holding: 50.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 116.945 -&gt; Score: 0; Return on Equity: 27.49% -&gt; Score: 100; Profit Growth YoY: 15.0% -&gt; Score: 75.0; Profit CAGR 5Y: 10.0% -&gt; Score: 50.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925; NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &lt;= 50 (+10); NIFTY200DMARSIVolume: Total Score: 45; 200-Day DMA: Below -&gt; Score: 0; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528; Volatility: 0.50 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
@@ -629,72 +640,77 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.3</v>
+        <v>45.31</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>59.4% -&gt; 100</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.0% -&gt; 12.0</t>
+          <t>Low rating (&lt; 60); Strong RS &gt; 70; RSI in neutral range; Negative MACD (Bearish)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>50.6% -&gt; 100</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.7% -&gt; 34.8</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>41.604 -&gt; 0</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>15.00% -&gt; 75.0</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>34.0% -&gt; 100</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>85.0% -&gt; 100</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="n">
+        <v>65</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>11.5% -&gt; 57.5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>1.00% -&gt; 50.0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>No moat: Insufficient competitive advantage</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>65</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>25.32905436695859</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>85</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>100</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>50</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>25</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>100</v>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Fetched fundamental data for AXISCADES.NS; Calculated technical metrics for AXISCADES.NS; Promoter Holding: 59.4% -&gt; Score: 100; Institutional Holding: 3.0% -&gt; Score: 12.0; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 34.0% -&gt; Score: 100; Profit CAGR 5Y: 85.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 24.3; Promoter Holding: 59.4% -&gt; Score: 100; Institutional Holding: 3.0% -&gt; Score: 12.0; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 34.0% -&gt; Score: 100; Profit CAGR 5Y: 85.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 24.3; Promoter Holding: 59.4% -&gt; Score: 100; Institutional Holding: 3.0% -&gt; Score: 12.0; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 34.0% -&gt; Score: 100; Profit CAGR 5Y: 85.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 24.3; Promoter Holding: 59.4% -&gt; Score: 100; Institutional Holding: 3.0% -&gt; Score: 12.0; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 34.0% -&gt; Score: 100; Profit CAGR 5Y: 85.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 24.3; Promoter Holding: 59.4% -&gt; Score: 100; Institutional Holding: 3.0% -&gt; Score: 12.0; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 34.0% -&gt; Score: 100; Profit CAGR 5Y: 85.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 24.3; Promoter Holding: 59.4% -&gt; Score: 100; Institutional Holding: 3.0% -&gt; Score: 12.0; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 34.0% -&gt; Score: 100; Profit CAGR 5Y: 85.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 24.3; Promoter Holding: 59.4% -&gt; Score: 100; Institutional Holding: 3.0% -&gt; Score: 12.0; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 34.0% -&gt; Score: 100; Profit CAGR 5Y: 85.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 24.3; Promoter Holding: 59.4% -&gt; Score: 100; Institutional Holding: 3.0% -&gt; Score: 12.0; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 34.0% -&gt; Score: 100; Profit CAGR 5Y: 85.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.42; Final Rating: 24.3</t>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Fetched fundamental data for AXISCADES.NS; Calculated technical metrics for AXISCADES.NS; Calculated technical metrics for AXISCADES.NS; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.60; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.60; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.60; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.60; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.60; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.60; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.60; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.60; Promoter Holding: 50.6% -&gt; Score: 100; Institutional Holding: 8.7% -&gt; Score: 34.8; Debt-to-Equity Ratio: 41.604 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 38.5% -&gt; Score: 100; Profit CAGR 5Y: 11.5% -&gt; Score: 57.5; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.58 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
@@ -705,72 +721,77 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.09</v>
+        <v>48.13</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>61.0% -&gt; 100</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>39.0% -&gt; 100</t>
+          <t>Low rating (&lt; 60); Strong RS &gt; 70; RSI in neutral range; Negative MACD (Bearish)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>60.0% -&gt; 100</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.0% -&gt; 40.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>5.514 -&gt; 0</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>15.00% -&gt; 75.0</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>78.0% -&gt; 100</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>35.0% -&gt; 100</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" t="n">
+        <v>65</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>25.0% -&gt; 100</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>1.00% -&gt; 50.0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>No moat: Insufficient competitive advantage</t>
         </is>
       </c>
-      <c r="K4" t="n">
-        <v>65</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>24.67793286296352</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>85</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>100</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>50</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>25</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>100</v>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Fetched fundamental data for CARTRADE.NS; Calculated technical metrics for CARTRADE.NS; Promoter Holding: 61.0% -&gt; Score: 100; Institutional Holding: 39.0% -&gt; Score: 100; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 78.0% -&gt; Score: 100; Profit CAGR 5Y: 35.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 29.09; Promoter Holding: 61.0% -&gt; Score: 100; Institutional Holding: 39.0% -&gt; Score: 100; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 78.0% -&gt; Score: 100; Profit CAGR 5Y: 35.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 29.09; Promoter Holding: 61.0% -&gt; Score: 100; Institutional Holding: 39.0% -&gt; Score: 100; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 78.0% -&gt; Score: 100; Profit CAGR 5Y: 35.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 29.09; Promoter Holding: 61.0% -&gt; Score: 100; Institutional Holding: 39.0% -&gt; Score: 100; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 78.0% -&gt; Score: 100; Profit CAGR 5Y: 35.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 29.09; Promoter Holding: 61.0% -&gt; Score: 100; Institutional Holding: 39.0% -&gt; Score: 100; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 78.0% -&gt; Score: 100; Profit CAGR 5Y: 35.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 29.09; Promoter Holding: 61.0% -&gt; Score: 100; Institutional Holding: 39.0% -&gt; Score: 100; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 78.0% -&gt; Score: 100; Profit CAGR 5Y: 35.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 29.09; Promoter Holding: 61.0% -&gt; Score: 100; Institutional Holding: 39.0% -&gt; Score: 100; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 78.0% -&gt; Score: 100; Profit CAGR 5Y: 35.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 29.09; Promoter Holding: 61.0% -&gt; Score: 100; Institutional Holding: 39.0% -&gt; Score: 100; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 78.0% -&gt; Score: 100; Profit CAGR 5Y: 35.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.46; Final Rating: 29.09</t>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Fetched fundamental data for CARTRADE.NS; Calculated technical metrics for CARTRADE.NS; Calculated technical metrics for CARTRADE.NS; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.60; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.60; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.60; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.60; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.60; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.60; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.60; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.60; Promoter Holding: 60.0% -&gt; Score: 100; Institutional Holding: 10.0% -&gt; Score: 40.0; Debt-to-Equity Ratio: 5.514 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 20.0% -&gt; Score: 100; Profit CAGR 5Y: 25.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 100.00 -&gt; Score: 100; Volatility: 0.54 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
@@ -781,72 +802,77 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.53</v>
+        <v>52.29</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Low rating (&lt; 60); RSI in neutral range; Positive MACD (Bullish)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>49.93% -&gt; 99.86</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>42.0% -&gt; 100</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>43.53% -&gt; 100</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>738.948 -&gt; 0</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>15.00% -&gt; 75.0</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>27.0% -&gt; 100</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>23.0% -&gt; 100</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" t="n">
+        <v>65</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>12.0% -&gt; 60.0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>1.00% -&gt; 50.0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>No moat: Insufficient competitive advantage</t>
         </is>
       </c>
-      <c r="K5" t="n">
-        <v>65</v>
-      </c>
-      <c r="L5" t="n">
-        <v>40.66905690810555</v>
-      </c>
       <c r="M5" t="n">
+        <v>40.6690569081062</v>
+      </c>
+      <c r="N5" t="n">
         <v>85</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>100</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>50</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>25</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>58.91538232317549</v>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Fetched fundamental data for CHOLAFIN.NS; Calculated technical metrics for CHOLAFIN.NS; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 42.0% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 27.0% -&gt; Score: 100; Profit CAGR 5Y: 23.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 40.53; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 42.0% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 27.0% -&gt; Score: 100; Profit CAGR 5Y: 23.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 40.53; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 42.0% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 27.0% -&gt; Score: 100; Profit CAGR 5Y: 23.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 40.53; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 42.0% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 27.0% -&gt; Score: 100; Profit CAGR 5Y: 23.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 40.53; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 42.0% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 27.0% -&gt; Score: 100; Profit CAGR 5Y: 23.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 40.53; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 42.0% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 27.0% -&gt; Score: 100; Profit CAGR 5Y: 23.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 40.53; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 42.0% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 27.0% -&gt; Score: 100; Profit CAGR 5Y: 23.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 40.53; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 42.0% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 27.0% -&gt; Score: 100; Profit CAGR 5Y: 23.0% -&gt; Score: 100; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.65; Final Rating: 40.53</t>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Fetched fundamental data for CHOLAFIN.NS; Fetched promoter_holding for CHOLAFIN.NS from Screener.in: 49.93; Fetched inst_holding for CHOLAFIN.NS from Screener.in: 43.53; Calculated technical metrics for CHOLAFIN.NS; Calculated technical metrics for CHOLAFIN.NS; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 43.53% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.6690569081062; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.70; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 43.53% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.6690569081062; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.70; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 43.53% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.6690569081062; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.70; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 43.53% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.6690569081062; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.70; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 43.53% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.6690569081062; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.70; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 43.53% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.6690569081062; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.70; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 43.53% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.6690569081062; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.70; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 43.53% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.6690569081062; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.70; Promoter Holding: 49.93% -&gt; Score: 99.86; Institutional Holding: 43.53% -&gt; Score: 100; Debt-to-Equity Ratio: 738.948 -&gt; Score: 0; Return on Equity: 15.00% -&gt; Score: 75.0; Profit Growth YoY: 10.0% -&gt; Score: 50.0; Profit CAGR 5Y: 12.0% -&gt; Score: 60.0; Dividend Yield: 1.00% -&gt; Score: 50.0; Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0; Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0; SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.6690569081062; NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25); NIFTY200DMARSIVolume: RSI in neutral range (+25); NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10); NIFTY200DMARSIVolume: RS &gt; 50 (+25); NIFTY200DMARSIVolume: Total Score: 85; 200-Day DMA: Above -&gt; Score: 100; 14-Day RSI: Neutral -&gt; Score: 50; 20-Day Volume MA: Below -&gt; Score: 25; Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486; Volatility: 0.35 -&gt; Penalty: 0.70</t>
         </is>
       </c>
     </row>
@@ -861,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A681"/>
+  <dimension ref="A1:A735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -896,147 +922,147 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
+          <t>NXPI: Calculated technical metrics for NXPI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
+          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
+          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
+          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
+          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
+          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
+          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
+          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.50</t>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NXPI: Final Rating: 22.45</t>
+          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
@@ -1176,3143 +1202,3143 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.50</t>
+          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>NXPI: Final Rating: 22.45</t>
+          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
+          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
+          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
+          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
+          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
+          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
+          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
+          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
+          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
+          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.50</t>
+          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>NXPI: Final Rating: 22.45</t>
+          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
+          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
+          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
+          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
+          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
+          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
+          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
+          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
+          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
+          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
+          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.50</t>
+          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NXPI: Final Rating: 22.45</t>
+          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
+          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
+          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
+          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
+          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
+          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
+          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
+          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
+          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
+          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.50</t>
+          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>NXPI: Final Rating: 22.45</t>
+          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
+          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
+          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
+          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
+          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
+          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
+          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
+          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
+          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.50</t>
+          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>NXPI: Final Rating: 22.45</t>
+          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
+          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
+          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
+          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
+          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
+          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
+          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
+          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.50</t>
+          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>NXPI: Final Rating: 22.45</t>
+          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
+          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
+          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
+          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
+          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
+          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
+          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
+          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
+          <t>NXPI: Promoter Holding: 50.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
+          <t>NXPI: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>NXPI: Debt-to-Equity Ratio: 116.945 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>NXPI: Return on Equity: 27.49% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
+          <t>NXPI: Profit Growth YoY: 15.0% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.50</t>
+          <t>NXPI: Profit CAGR 5Y: 10.0% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>NXPI: Final Rating: 22.45</t>
+          <t>NXPI: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Fetched fundamental data for AXISCADES.NS</t>
+          <t>NXPI: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Calculated technical metrics for AXISCADES.NS</t>
+          <t>NXPI: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Promoter Holding: 59.4% -&gt; Score: 100</t>
+          <t>NXPI: SymbolTrendRS: RSI=41.83, MACD=Positive -&gt; Score: 35.45860667648925</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Institutional Holding: 3.0% -&gt; Score: 12.0</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Price &lt;= 200-Day DMA (+0)</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
+          <t>NXPI: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit Growth YoY: 34.0% -&gt; Score: 100</t>
+          <t>NXPI: NIFTY200DMARSIVolume: RS &lt;= 50 (+10)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit CAGR 5Y: 85.0% -&gt; Score: 100</t>
+          <t>NXPI: NIFTY200DMARSIVolume: Total Score: 45</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>NXPI: 200-Day DMA: Below -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>NXPI: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>NXPI: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
+          <t>NXPI: Simple RS vs ^IXIC: 30.38 -&gt; Score: 30.38357733960528</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>NXPI: Volatility: 0.50 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>AXISCADES.NS: Fetched fundamental data for AXISCADES.NS</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>AXISCADES.NS: Calculated technical metrics for AXISCADES.NS</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>AXISCADES.NS: Calculated technical metrics for AXISCADES.NS</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.42</t>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Final Rating: 24.3</t>
+          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Promoter Holding: 59.4% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Institutional Holding: 3.0% -&gt; Score: 12.0</t>
+          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
+          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit Growth YoY: 34.0% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit CAGR 5Y: 85.0% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
+          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.42</t>
+          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Final Rating: 24.3</t>
+          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Promoter Holding: 59.4% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Institutional Holding: 3.0% -&gt; Score: 12.0</t>
+          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit Growth YoY: 34.0% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit CAGR 5Y: 85.0% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
+          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.42</t>
+          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Final Rating: 24.3</t>
+          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Promoter Holding: 59.4% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Institutional Holding: 3.0% -&gt; Score: 12.0</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit Growth YoY: 34.0% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit CAGR 5Y: 85.0% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
+          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.42</t>
+          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Final Rating: 24.3</t>
+          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Promoter Holding: 59.4% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Institutional Holding: 3.0% -&gt; Score: 12.0</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit Growth YoY: 34.0% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit CAGR 5Y: 85.0% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
+          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.42</t>
+          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Final Rating: 24.3</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Promoter Holding: 59.4% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Institutional Holding: 3.0% -&gt; Score: 12.0</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit Growth YoY: 34.0% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit CAGR 5Y: 85.0% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
+          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.42</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Final Rating: 24.3</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Promoter Holding: 59.4% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Institutional Holding: 3.0% -&gt; Score: 12.0</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit Growth YoY: 34.0% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit CAGR 5Y: 85.0% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
+          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.42</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Final Rating: 24.3</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Promoter Holding: 59.4% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Institutional Holding: 3.0% -&gt; Score: 12.0</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
+          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit Growth YoY: 34.0% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Profit CAGR 5Y: 85.0% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
+          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.42</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>AXISCADES.NS: Final Rating: 24.3</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Fetched fundamental data for CARTRADE.NS</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Calculated technical metrics for CARTRADE.NS</t>
+          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Promoter Holding: 61.0% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Institutional Holding: 39.0% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
+          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit Growth YoY: 78.0% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Promoter Holding: 50.6% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit CAGR 5Y: 35.0% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Institutional Holding: 8.7% -&gt; Score: 34.8</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>AXISCADES.NS: Debt-to-Equity Ratio: 41.604 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>AXISCADES.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>AXISCADES.NS: Profit Growth YoY: 38.5% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
+          <t>AXISCADES.NS: Profit CAGR 5Y: 11.5% -&gt; Score: 57.5</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>AXISCADES.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>AXISCADES.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>AXISCADES.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>AXISCADES.NS: SymbolTrendRS: RSI=51.32, MACD=Negative -&gt; Score: 25.329054366958594</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+          <t>AXISCADES.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.46</t>
+          <t>AXISCADES.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Final Rating: 29.09</t>
+          <t>AXISCADES.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Promoter Holding: 61.0% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Institutional Holding: 39.0% -&gt; Score: 100</t>
+          <t>AXISCADES.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
+          <t>AXISCADES.NS: Volatility: 0.58 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>CARTRADE.NS: Fetched fundamental data for CARTRADE.NS</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit Growth YoY: 78.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Calculated technical metrics for CARTRADE.NS</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit CAGR 5Y: 35.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Calculated technical metrics for CARTRADE.NS</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
+          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.46</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Final Rating: 29.09</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Promoter Holding: 61.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Institutional Holding: 39.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
+          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit Growth YoY: 78.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit CAGR 5Y: 35.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
+          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.46</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Final Rating: 29.09</t>
+          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Promoter Holding: 61.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Institutional Holding: 39.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
+          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit Growth YoY: 78.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit CAGR 5Y: 35.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.46</t>
+          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Final Rating: 29.09</t>
+          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Promoter Holding: 61.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Institutional Holding: 39.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
+          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit Growth YoY: 78.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit CAGR 5Y: 35.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
+          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.46</t>
+          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Final Rating: 29.09</t>
+          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Promoter Holding: 61.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Institutional Holding: 39.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
+          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit Growth YoY: 78.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit CAGR 5Y: 35.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
+          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.46</t>
+          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Final Rating: 29.09</t>
+          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Promoter Holding: 61.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Institutional Holding: 39.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
+          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit Growth YoY: 78.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit CAGR 5Y: 35.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
+          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
+          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.46</t>
+          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Final Rating: 29.09</t>
+          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Promoter Holding: 61.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Institutional Holding: 39.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
         </is>
       </c>
     </row>
@@ -4333,14 +4359,14 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit Growth YoY: 78.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Profit CAGR 5Y: 35.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -4438,322 +4464,322 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.46</t>
+          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>CARTRADE.NS: Final Rating: 29.09</t>
+          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Fetched fundamental data for CHOLAFIN.NS</t>
+          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Calculated technical metrics for CHOLAFIN.NS</t>
+          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
+          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Institutional Holding: 42.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit Growth YoY: 27.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit CAGR 5Y: 23.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>CARTRADE.NS: Promoter Holding: 60.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
+          <t>CARTRADE.NS: Institutional Holding: 10.0% -&gt; Score: 40.0</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.65</t>
+          <t>CARTRADE.NS: Debt-to-Equity Ratio: 5.514 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Final Rating: 40.53</t>
+          <t>CARTRADE.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
+          <t>CARTRADE.NS: Profit Growth YoY: 20.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Institutional Holding: 42.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Profit CAGR 5Y: 25.0% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
+          <t>CARTRADE.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>CARTRADE.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit Growth YoY: 27.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit CAGR 5Y: 23.0% -&gt; Score: 100</t>
+          <t>CARTRADE.NS: SymbolTrendRS: RSI=48.71, MACD=Negative -&gt; Score: 24.677932862963523</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>CARTRADE.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>CARTRADE.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>CARTRADE.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>CARTRADE.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>CARTRADE.NS: Simple RS vs ^NSEI: 100.00 -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>CARTRADE.NS: Volatility: 0.54 -&gt; Penalty: 0.60</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>CHOLAFIN.NS: Fetched fundamental data for CHOLAFIN.NS</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>CHOLAFIN.NS: Fetched promoter_holding for CHOLAFIN.NS from Screener.in: 49.93</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
+          <t>CHOLAFIN.NS: Fetched inst_holding for CHOLAFIN.NS from Screener.in: 43.53</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.65</t>
+          <t>CHOLAFIN.NS: Calculated technical metrics for CHOLAFIN.NS</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Final Rating: 40.53</t>
+          <t>CHOLAFIN.NS: Calculated technical metrics for CHOLAFIN.NS</t>
         </is>
       </c>
     </row>
@@ -4767,7 +4793,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Institutional Holding: 42.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Institutional Holding: 43.53% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
@@ -4788,14 +4814,14 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit Growth YoY: 27.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit CAGR 5Y: 23.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
         </is>
       </c>
     </row>
@@ -4823,7 +4849,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546</t>
+          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.6690569081062</t>
         </is>
       </c>
     </row>
@@ -4893,749 +4919,1127 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.65</t>
+          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.70</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Final Rating: 40.53</t>
+          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
+          <t>CHOLAFIN.NS: Institutional Holding: 43.53% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Institutional Holding: 42.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
+          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit Growth YoY: 27.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit CAGR 5Y: 23.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.6690569081062</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
+          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.70</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.65</t>
+          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Final Rating: 40.53</t>
+          <t>CHOLAFIN.NS: Institutional Holding: 43.53% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
+          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Institutional Holding: 42.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit Growth YoY: 27.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit CAGR 5Y: 23.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.6690569081062</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.70</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
+          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.65</t>
+          <t>CHOLAFIN.NS: Institutional Holding: 43.53% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Final Rating: 40.53</t>
+          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
+          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Institutional Holding: 42.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit Growth YoY: 27.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit CAGR 5Y: 23.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.6690569081062</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.70</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
+          <t>CHOLAFIN.NS: Institutional Holding: 43.53% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.65</t>
+          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Final Rating: 40.53</t>
+          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Institutional Holding: 42.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
+          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit Growth YoY: 27.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit CAGR 5Y: 23.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.6690569081062</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.70</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>CHOLAFIN.NS: Institutional Holding: 43.53% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
+          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.65</t>
+          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Final Rating: 40.53</t>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Institutional Holding: 42.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
+          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit Growth YoY: 27.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.6690569081062</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Profit CAGR 5Y: 23.0% -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.669056908105546</t>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.70</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+          <t>CHOLAFIN.NS: Institutional Holding: 43.53% -&gt; Score: 100</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
+          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.65</t>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS: Final Rating: 40.53</t>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.6690569081062</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Institutional Holding: 43.53% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.6690569081062</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Promoter Holding: 49.93% -&gt; Score: 99.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Institutional Holding: 43.53% -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Debt-to-Equity Ratio: 738.948 -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Return on Equity: 15.00% -&gt; Score: 75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Profit Growth YoY: 10.0% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Profit CAGR 5Y: 12.0% -&gt; Score: 60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Dividend Yield: 1.00% -&gt; Score: 50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Economic Moat: No moat: Insufficient competitive advantage -&gt; Score: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Valuation Score: PE=20.00, PB=2.00 -&gt; Score: 65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: SymbolTrendRS: RSI=62.68, MACD=Positive -&gt; Score: 40.6690569081062</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Price &gt; 200-Day DMA (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RSI in neutral range (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Volume &lt;= 20-Day Vol MA (+10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: RS &gt; 50 (+25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: NIFTY200DMARSIVolume: Total Score: 85</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 200-Day DMA: Above -&gt; Score: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 14-Day RSI: Neutral -&gt; Score: 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: 20-Day Volume MA: Below -&gt; Score: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Simple RS vs ^NSEI: 58.92 -&gt; Score: 58.915382323175486</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>CHOLAFIN.NS: Volatility: 0.35 -&gt; Penalty: 0.70</t>
         </is>
       </c>
     </row>
